--- a/isa.investigation.xlsx
+++ b/isa.investigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Zimmer\source\repos\Hackathon_SampleRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E97F2BE-A368-447E-9690-8599F0A270E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391675E-9F3B-4A4D-9FD3-DE023AB4018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4327" yWindow="3345" windowWidth="18225" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="18225" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_investigation" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <t>Proteomics</t>
   </si>
   <si>
-    <t>assays\mzlite\assay.isa.xlsx</t>
+    <t>assays\assay1\assay.isa.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
